--- a/data/trans_orig/Cage-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4A46A1-8EA9-4B84-B905-DE0B0173326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9408951D-4225-448A-8F5A-D9C139EC548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2206FC9-2936-42A2-B55D-E8A702EF988C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAE2C4F4-A958-499D-B8CC-EBF11264D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="424">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,1210 +80,1225 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Consumo perjudicial</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>Consumo perjudicial</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
   </si>
   <si>
     <t>97,02%</t>
@@ -1707,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133F7B0E-C6B2-431D-888E-F59F0FE23DD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDACC81-BC61-4E66-B034-BA9D3BA9FB92}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2124,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2169,13 +2184,13 @@
         <v>908</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2205,13 @@
         <v>3903</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2220,13 +2235,13 @@
         <v>3903</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2256,13 @@
         <v>486219</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>499</v>
@@ -2271,13 +2286,13 @@
         <v>990168</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,7 +2348,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2351,37 +2366,37 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,37 +2417,37 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,37 +2468,37 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,7 +2516,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -2516,7 +2531,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -2531,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>38</v>
@@ -2590,7 +2605,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2608,7 +2623,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2653,13 +2668,13 @@
         <v>2436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2683,13 +2698,13 @@
         <v>2436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2719,13 @@
         <v>3574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2725,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2734,13 +2749,13 @@
         <v>6204</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2770,13 @@
         <v>352662</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
         <v>382</v>
@@ -2770,10 +2785,10 @@
         <v>368826</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -2785,13 +2800,13 @@
         <v>721488</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2862,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2859,13 +2874,13 @@
         <v>895</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2880,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2889,13 +2904,13 @@
         <v>895</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3042,7 +3057,7 @@
         <v>408423</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>98</v>
@@ -3167,7 +3182,7 @@
         <v>2612</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
@@ -3284,7 +3299,7 @@
         <v>276167</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>109</v>
@@ -3475,13 +3490,13 @@
         <v>2800</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3505,13 +3520,13 @@
         <v>2800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,10 +3544,10 @@
         <v>121</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H37" s="7">
         <v>621</v>
@@ -3544,7 +3559,7 @@
         <v>34</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>38</v>
@@ -3556,13 +3571,13 @@
         <v>1250446</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3633,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3630,13 +3645,13 @@
         <v>777</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3645,13 +3660,13 @@
         <v>1018</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -3660,13 +3675,13 @@
         <v>1795</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3696,13 @@
         <v>882</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3696,13 +3711,13 @@
         <v>1018</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3711,13 +3726,13 @@
         <v>1900</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3762,13 +3777,13 @@
         <v>1953</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3798,13 @@
         <v>740183</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H42" s="7">
         <v>743</v>
@@ -3798,10 +3813,10 @@
         <v>781476</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -3813,13 +3828,13 @@
         <v>1521658</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3902,13 @@
         <v>5607</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3902,13 +3917,13 @@
         <v>1018</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3917,13 +3932,13 @@
         <v>6625</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,10 +3956,10 @@
         <v>42</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3953,13 +3968,13 @@
         <v>2006</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M45" s="7">
         <v>8</v>
@@ -3968,13 +3983,13 @@
         <v>8843</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,10 +4007,10 @@
         <v>92</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -4007,10 +4022,10 @@
         <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -4019,13 +4034,13 @@
         <v>19459</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4055,13 @@
         <v>3250905</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H47" s="7">
         <v>3289</v>
@@ -4055,28 +4070,28 @@
         <v>3369909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="M47" s="7">
         <v>6478</v>
       </c>
       <c r="N47" s="7">
-        <v>6620813</v>
+        <v>6620814</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4133,7 @@
         <v>6511</v>
       </c>
       <c r="N48" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>38</v>
@@ -4132,7 +4147,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6337D7-B92F-4281-8E17-7204D1A67677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0064844A-6AFE-4C98-B81A-742F24F78576}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4173,7 +4188,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4278,39 +4293,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,39 +4338,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,39 +4383,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,39 +4428,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,39 +4473,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4558,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4573,13 @@
         <v>3241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4594,7 +4609,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4624,13 @@
         <v>8101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4639,13 +4654,13 @@
         <v>8101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4675,13 @@
         <v>494186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="H12" s="7">
         <v>480</v>
@@ -4678,7 +4693,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -4690,13 +4705,13 @@
         <v>1017951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,7 +4767,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4770,7 +4785,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4785,7 +4800,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4800,7 +4815,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4836,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4851,7 +4866,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4887,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4881,13 +4896,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4896,13 +4911,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4935,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -4932,10 +4947,10 @@
         <v>340034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -4947,10 +4962,10 @@
         <v>664080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -5009,7 +5024,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5024,10 +5039,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5051,13 +5066,13 @@
         <v>4627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5087,13 @@
         <v>8868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5102,13 +5117,13 @@
         <v>8868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5138,13 @@
         <v>10304</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5138,13 +5153,13 @@
         <v>1012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5153,13 +5168,13 @@
         <v>11316</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5189,13 @@
         <v>644921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>626</v>
@@ -5189,10 +5204,10 @@
         <v>675184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -5204,13 +5219,13 @@
         <v>1320105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5281,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5278,13 +5293,13 @@
         <v>2172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5299,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5314,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,22 +5350,22 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5380,13 +5395,13 @@
         <v>3945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5401,7 +5416,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5410,13 +5425,13 @@
         <v>3945</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5446,13 @@
         <v>206502</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H27" s="7">
         <v>212</v>
@@ -5449,7 +5464,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -5461,13 +5476,13 @@
         <v>426093</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5571,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5607,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5643,7 +5658,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5691,7 +5706,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -5706,7 +5721,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -5718,10 +5733,10 @@
         <v>552958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>34</v>
@@ -5813,7 +5828,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5828,7 +5843,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5858,13 @@
         <v>4955</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5858,13 +5873,13 @@
         <v>1002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -5873,13 +5888,13 @@
         <v>5956</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5909,13 @@
         <v>6846</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5915,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -5924,13 +5939,13 @@
         <v>7975</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5960,13 @@
         <v>650988</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>634</v>
@@ -5960,10 +5975,10 @@
         <v>691723</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>34</v>
@@ -5975,13 +5990,13 @@
         <v>1342710</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6052,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6049,13 +6064,13 @@
         <v>1030</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6070,7 +6085,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6079,13 +6094,13 @@
         <v>1030</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6115,13 @@
         <v>4121</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6121,7 +6136,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -6133,10 +6148,10 @@
         <v>66</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6166,13 @@
         <v>6565</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -6166,13 +6181,13 @@
         <v>996</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -6184,10 +6199,10 @@
         <v>89</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6217,13 @@
         <v>767383</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="H42" s="7">
         <v>756</v>
@@ -6217,10 +6232,10 @@
         <v>822857</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -6232,13 +6247,13 @@
         <v>1590240</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6324,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>89</v>
@@ -6327,7 +6342,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -6336,13 +6351,13 @@
         <v>8882</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6372,13 @@
         <v>21184</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -6372,13 +6387,13 @@
         <v>1002</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -6390,10 +6405,10 @@
         <v>114</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6423,13 @@
         <v>35760</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -6423,13 +6438,13 @@
         <v>4123</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M46" s="7">
         <v>37</v>
@@ -6438,13 +6453,13 @@
         <v>39882</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6474,13 @@
         <v>3360953</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="H47" s="7">
         <v>3293</v>
@@ -6474,13 +6489,13 @@
         <v>3553185</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="M47" s="7">
         <v>6441</v>
@@ -6489,13 +6504,13 @@
         <v>6914138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6566,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6575,7 +6590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750A259-C905-45A2-969C-604E92FC21A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E6B795-D267-43D2-96BE-02A12B56C113}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6592,7 +6607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6699,13 +6714,13 @@
         <v>2143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6714,13 +6729,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6732,10 +6747,10 @@
         <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6765,13 @@
         <v>4565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6783,10 +6798,10 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6816,13 @@
         <v>8355</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6816,13 +6831,13 @@
         <v>4505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6831,13 +6846,13 @@
         <v>12860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6867,13 @@
         <v>278698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -6867,13 +6882,13 @@
         <v>282171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -6882,13 +6897,13 @@
         <v>560869</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,7 +7007,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,7 +7058,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7073,13 @@
         <v>4364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7079,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -7088,13 +7103,13 @@
         <v>5473</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,13 +7124,13 @@
         <v>498211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H12" s="7">
         <v>483</v>
@@ -7124,10 +7139,10 @@
         <v>521975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -7139,13 +7154,13 @@
         <v>1020186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,7 +7216,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7219,7 +7234,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7234,7 +7249,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7249,7 +7264,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7285,7 +7300,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7300,7 +7315,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7330,13 @@
         <v>865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7336,7 +7351,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7345,13 +7360,13 @@
         <v>865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,10 +7381,10 @@
         <v>317700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>34</v>
@@ -7384,7 +7399,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -7396,10 +7411,10 @@
         <v>654009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -7458,7 +7473,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7476,7 +7491,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7491,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7506,7 +7521,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7536,13 @@
         <v>1267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7542,7 +7557,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7551,13 +7566,13 @@
         <v>1267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,7 +7593,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7593,7 +7608,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7608,7 +7623,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,10 +7638,10 @@
         <v>368697</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>34</v>
@@ -7641,7 +7656,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -7653,10 +7668,10 @@
         <v>755980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -7715,7 +7730,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7733,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7748,7 +7763,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7763,7 +7778,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7793,13 @@
         <v>960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7799,7 +7814,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7808,13 +7823,13 @@
         <v>960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7844,13 @@
         <v>1896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7850,7 +7865,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7859,13 +7874,13 @@
         <v>1896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,10 +7895,10 @@
         <v>208364</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>94</v>
@@ -7898,7 +7913,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -7910,13 +7925,13 @@
         <v>426951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,7 +8005,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8005,7 +8020,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8020,7 +8035,7 @@
         <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8050,13 @@
         <v>1912</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8050,13 +8065,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8065,13 +8080,13 @@
         <v>2853</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,7 +8107,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8107,7 +8122,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8122,7 +8137,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,10 +8152,10 @@
         <v>261211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -8152,10 +8167,10 @@
         <v>272174</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -8167,13 +8182,13 @@
         <v>533385</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,7 +8262,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8262,7 +8277,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8292,13 +8307,13 @@
         <v>3235</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8313,7 +8328,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -8322,13 +8337,13 @@
         <v>3235</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8358,13 @@
         <v>14054</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -8358,13 +8373,13 @@
         <v>6109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8373,13 +8388,13 @@
         <v>20163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8409,13 @@
         <v>639269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="H37" s="7">
         <v>640</v>
@@ -8409,13 +8424,13 @@
         <v>685185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M37" s="7">
         <v>1205</v>
@@ -8424,13 +8439,13 @@
         <v>1324453</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,7 +8501,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8519,7 +8534,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -8534,7 +8549,7 @@
         <v>14</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,13 +8564,13 @@
         <v>921</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8570,7 +8585,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8579,13 +8594,13 @@
         <v>921</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,13 +8615,13 @@
         <v>4242</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -8615,13 +8630,13 @@
         <v>2197</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -8633,10 +8648,10 @@
         <v>92</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,13 +8666,13 @@
         <v>773421</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="G42" s="7" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="H42" s="7">
         <v>753</v>
@@ -8666,10 +8681,10 @@
         <v>823970</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -8684,10 +8699,10 @@
         <v>121</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,13 +8770,13 @@
         <v>2143</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -8770,13 +8785,13 @@
         <v>2026</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -8785,13 +8800,13 @@
         <v>4170</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,10 +8824,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -8821,13 +8836,13 @@
         <v>941</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -8836,13 +8851,13 @@
         <v>13802</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8872,13 @@
         <v>33776</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -8872,13 +8887,13 @@
         <v>13921</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -8890,10 +8905,10 @@
         <v>11</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,13 +8923,13 @@
         <v>3345570</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H47" s="7">
         <v>3322</v>
@@ -8923,13 +8938,13 @@
         <v>3527654</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="M47" s="7">
         <v>6509</v>
@@ -8938,13 +8953,13 @@
         <v>6873224</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,7 +9015,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -9024,7 +9039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FC1489-3A31-4256-82CC-51E2BDFA3D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69206D6-D78F-4B7C-8BC2-C1027B1FB326}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9041,7 +9056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9154,7 +9169,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9169,7 +9184,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9184,7 +9199,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,13 +9214,13 @@
         <v>1244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9220,7 +9235,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -9229,13 +9244,13 @@
         <v>1244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9250,13 +9265,13 @@
         <v>3701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9271,7 +9286,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -9280,13 +9295,13 @@
         <v>3701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,13 +9316,13 @@
         <v>149535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -9319,7 +9334,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>38</v>
@@ -9331,13 +9346,13 @@
         <v>234492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,7 +9426,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9426,7 +9441,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9441,7 +9456,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9462,7 +9477,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9477,7 +9492,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9492,7 +9507,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9513,7 +9528,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9528,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9543,7 +9558,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9561,7 +9576,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -9576,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -9591,7 +9606,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -9650,7 +9665,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -9662,13 +9677,13 @@
         <v>2906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -9677,13 +9692,13 @@
         <v>1124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -9692,13 +9707,13 @@
         <v>4030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,13 +9728,13 @@
         <v>3506</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9734,7 +9749,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -9743,13 +9758,13 @@
         <v>3506</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,13 +9779,13 @@
         <v>3010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9779,13 +9794,13 @@
         <v>670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -9794,13 +9809,13 @@
         <v>3681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9815,13 +9830,13 @@
         <v>179520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -9830,13 +9845,13 @@
         <v>94004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -9845,13 +9860,13 @@
         <v>273524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,7 +9922,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9925,7 +9940,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -9940,7 +9955,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -9949,13 +9964,13 @@
         <v>2651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,7 +9991,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9991,7 +10006,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10006,7 +10021,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10021,13 +10036,13 @@
         <v>924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10042,7 +10057,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -10051,13 +10066,13 @@
         <v>924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10072,7 +10087,7 @@
         <v>178965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>356</v>
@@ -10105,7 +10120,7 @@
         <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>360</v>
@@ -10164,7 +10179,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -10206,13 +10221,13 @@
         <v>481</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,22 +10263,22 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,22 +10314,22 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10332,7 +10347,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>38</v>
@@ -10344,10 +10359,10 @@
         <v>9315</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -10359,10 +10374,10 @@
         <v>43845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -10433,13 +10448,13 @@
         <v>3170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -10448,13 +10463,13 @@
         <v>2400</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -10463,13 +10478,13 @@
         <v>5570</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10484,13 +10499,13 @@
         <v>657</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10505,7 +10520,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -10514,13 +10529,13 @@
         <v>657</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10535,13 +10550,13 @@
         <v>926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10556,7 +10571,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -10565,13 +10580,13 @@
         <v>926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>380</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10586,13 +10601,13 @@
         <v>164672</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
@@ -10601,13 +10616,13 @@
         <v>100936</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>350</v>
@@ -10616,13 +10631,13 @@
         <v>265606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10690,13 +10705,13 @@
         <v>2811</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10705,10 +10720,10 @@
         <v>5270</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>389</v>
@@ -10723,7 +10738,7 @@
         <v>390</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>391</v>
@@ -10741,13 +10756,13 @@
         <v>3645</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>119</v>
+        <v>392</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -10756,13 +10771,13 @@
         <v>1566</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>393</v>
+        <v>198</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -10771,13 +10786,13 @@
         <v>5211</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10792,13 +10807,13 @@
         <v>3144</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10807,13 +10822,13 @@
         <v>696</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10822,13 +10837,13 @@
         <v>3841</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10843,13 +10858,13 @@
         <v>299328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H37" s="7">
         <v>277</v>
@@ -10858,13 +10873,13 @@
         <v>312804</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M37" s="7">
         <v>555</v>
@@ -10873,13 +10888,13 @@
         <v>612132</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10935,7 +10950,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10947,13 +10962,13 @@
         <v>1941</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>404</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10968,7 +10983,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>308</v>
+        <v>405</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -10977,13 +10992,13 @@
         <v>1941</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11004,7 +11019,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11013,13 +11028,13 @@
         <v>808</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -11028,13 +11043,13 @@
         <v>1991</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11049,13 +11064,13 @@
         <v>1083</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11064,13 +11079,13 @@
         <v>822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -11079,13 +11094,13 @@
         <v>1906</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11100,13 +11115,13 @@
         <v>321757</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
@@ -11115,10 +11130,10 @@
         <v>119829</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -11130,10 +11145,10 @@
         <v>441586</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>30</v>
+        <v>416</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>94</v>
@@ -11207,10 +11222,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H44" s="7">
         <v>12</v>
@@ -11219,13 +11234,13 @@
         <v>10238</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="M44" s="7">
         <v>28</v>
@@ -11234,13 +11249,13 @@
         <v>22754</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11255,13 +11270,13 @@
         <v>10234</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -11270,10 +11285,10 @@
         <v>2374</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>11</v>
@@ -11285,10 +11300,10 @@
         <v>12608</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>90</v>
@@ -11306,13 +11321,13 @@
         <v>12789</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -11321,13 +11336,13 @@
         <v>2189</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -11336,10 +11351,10 @@
         <v>14978</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>88</v>
@@ -11357,13 +11372,13 @@
         <v>1575913</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H47" s="7">
         <v>1174</v>
@@ -11372,13 +11387,13 @@
         <v>971305</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>358</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M47" s="7">
         <v>2712</v>
@@ -11387,13 +11402,13 @@
         <v>2547219</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11449,7 +11464,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9408951D-4225-448A-8F5A-D9C139EC548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B095198-38AD-4262-ACA2-52195805BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAE2C4F4-A958-499D-B8CC-EBF11264D41A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5547EFCA-2A64-4434-BF20-B7ABB00AD2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="415">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,1237 +80,1210 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Consumo perjudicial</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Consumo perjudicial</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>96,96%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
     <t>99,18%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,39%</t>
+    <t>97,43%</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDACC81-BC61-4E66-B034-BA9D3BA9FB92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B50A79-3A21-4EF8-A7A1-5E530A0E0168}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2139,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2184,13 +2157,13 @@
         <v>908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2178,13 @@
         <v>3903</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2235,13 +2208,13 @@
         <v>3903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2229,13 @@
         <v>486219</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>499</v>
@@ -2286,13 +2259,13 @@
         <v>990168</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2321,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2366,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2381,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2396,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2432,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2447,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2441,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2483,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2498,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2489,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -2531,7 +2504,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -2546,7 +2519,7 @@
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>38</v>
@@ -2605,7 +2578,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2623,7 +2596,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2638,7 +2611,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2653,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2641,13 @@
         <v>2436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2689,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2698,13 +2671,13 @@
         <v>2436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,7 +2692,7 @@
         <v>3574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>72</v>
@@ -2752,7 +2725,7 @@
         <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>76</v>
@@ -2776,7 +2749,7 @@
         <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>382</v>
@@ -2880,22 +2853,22 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2910,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2946,7 +2919,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2961,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2991,13 +2964,13 @@
         <v>1658</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3006,13 +2979,13 @@
         <v>1658</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,10 +3000,10 @@
         <v>202413</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>34</v>
@@ -3042,10 +3015,10 @@
         <v>206010</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -3057,10 +3030,10 @@
         <v>408423</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -3119,7 +3092,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3137,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3182,7 +3155,7 @@
         <v>2612</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
@@ -3239,7 +3212,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3490,13 +3463,13 @@
         <v>2800</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3645,13 +3618,13 @@
         <v>777</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3660,13 +3633,13 @@
         <v>1018</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -3675,13 +3648,13 @@
         <v>1795</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3669,13 @@
         <v>882</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3711,13 +3684,13 @@
         <v>1018</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3726,13 +3699,13 @@
         <v>1900</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3720,13 @@
         <v>1953</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3768,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3777,13 +3750,13 @@
         <v>1953</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3771,13 @@
         <v>740183</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H42" s="7">
         <v>743</v>
@@ -3813,10 +3786,10 @@
         <v>781476</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -3828,13 +3801,13 @@
         <v>1521658</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3875,13 @@
         <v>5607</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3917,13 +3890,13 @@
         <v>1018</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3932,10 +3905,10 @@
         <v>6625</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>22</v>
@@ -3956,10 +3929,10 @@
         <v>42</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3968,13 +3941,13 @@
         <v>2006</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="M45" s="7">
         <v>8</v>
@@ -3983,13 +3956,13 @@
         <v>8843</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3977,13 @@
         <v>13194</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -4022,10 +3995,10 @@
         <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -4034,13 +4007,13 @@
         <v>19459</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,16 +4025,16 @@
         <v>3189</v>
       </c>
       <c r="D47" s="7">
-        <v>3250905</v>
+        <v>3250904</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H47" s="7">
         <v>3289</v>
@@ -4070,13 +4043,13 @@
         <v>3369909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="M47" s="7">
         <v>6478</v>
@@ -4085,13 +4058,13 @@
         <v>6620814</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4076,7 @@
         <v>3214</v>
       </c>
       <c r="D48" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>38</v>
@@ -4147,7 +4120,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4171,7 +4144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0064844A-6AFE-4C98-B81A-742F24F78576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A7CC2A-2415-4ADD-8FCE-A16B1AE84F0A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4188,7 +4161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4293,39 +4266,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,39 +4311,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,39 +4356,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,39 +4401,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,39 +4446,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4516,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4558,7 +4531,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4546,13 @@
         <v>3241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4594,7 +4567,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4609,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4597,13 @@
         <v>8101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4645,7 +4618,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4654,13 +4627,13 @@
         <v>8101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4648,13 @@
         <v>494186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7">
         <v>480</v>
@@ -4693,7 +4666,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -4705,13 +4678,13 @@
         <v>1017951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,7 +4740,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4785,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4800,7 +4773,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4815,7 +4788,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4809,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4851,7 +4824,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4866,7 +4839,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4860,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4896,13 +4869,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4911,13 +4884,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4908,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -4947,10 +4920,10 @@
         <v>340034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -4962,10 +4935,10 @@
         <v>664080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -5024,7 +4997,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5039,10 +5012,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5066,13 +5039,13 @@
         <v>4627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5060,13 @@
         <v>8868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5117,13 +5090,13 @@
         <v>8868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5111,13 @@
         <v>10304</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5153,13 +5126,13 @@
         <v>1012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5168,13 +5141,13 @@
         <v>11316</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5162,13 @@
         <v>644921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>626</v>
@@ -5204,10 +5177,10 @@
         <v>675184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -5219,13 +5192,13 @@
         <v>1320105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5266,13 @@
         <v>2172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5314,7 +5287,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5323,13 +5296,13 @@
         <v>2172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,7 +5323,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5365,7 +5338,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5380,7 +5353,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5368,13 @@
         <v>3945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5416,7 +5389,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5425,13 +5398,13 @@
         <v>3945</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5419,13 @@
         <v>206502</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H27" s="7">
         <v>212</v>
@@ -5464,7 +5437,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -5476,13 +5449,13 @@
         <v>426093</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5511,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5556,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5586,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5580,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5658,7 +5631,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5706,7 +5679,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -5733,10 +5706,10 @@
         <v>552958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>34</v>
@@ -5828,7 +5801,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5843,7 +5816,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5831,13 @@
         <v>4955</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5873,13 +5846,13 @@
         <v>1002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -5891,10 +5864,10 @@
         <v>85</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -5939,13 +5912,13 @@
         <v>7975</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,10 +5966,10 @@
         <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6037,13 @@
         <v>1030</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6085,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6094,13 +6067,13 @@
         <v>1030</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6088,13 @@
         <v>4121</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6136,7 +6109,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -6145,13 +6118,13 @@
         <v>4121</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6139,13 @@
         <v>6565</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -6181,13 +6154,13 @@
         <v>996</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -6196,13 +6169,13 @@
         <v>7561</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6190,13 @@
         <v>767383</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H42" s="7">
         <v>756</v>
@@ -6232,10 +6205,10 @@
         <v>822857</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -6247,10 +6220,10 @@
         <v>1590240</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>32</v>
@@ -6321,13 +6294,13 @@
         <v>8882</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6342,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -6351,13 +6324,13 @@
         <v>8882</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6345,13 @@
         <v>21184</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -6387,13 +6360,13 @@
         <v>1002</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -6426,7 +6399,7 @@
         <v>240</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>241</v>
@@ -6438,13 +6411,13 @@
         <v>4123</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M46" s="7">
         <v>37</v>
@@ -6453,13 +6426,13 @@
         <v>39882</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,10 +6465,10 @@
         <v>123</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M47" s="7">
         <v>6441</v>
@@ -6504,13 +6477,13 @@
         <v>6914138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>247</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6539,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6590,7 +6563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E6B795-D267-43D2-96BE-02A12B56C113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7AC19C-0968-4EAA-BA42-D931927EABF1}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6714,7 +6687,7 @@
         <v>2143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -6744,7 +6717,7 @@
         <v>4170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
@@ -6798,10 +6771,10 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6789,13 @@
         <v>8355</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6831,13 +6804,13 @@
         <v>4505</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6846,13 +6819,13 @@
         <v>12860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6840,13 @@
         <v>278698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -6882,13 +6855,13 @@
         <v>282171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -6903,7 +6876,7 @@
         <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,7 +6950,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6992,7 +6965,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7007,7 +6980,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,7 +7001,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7043,7 +7016,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7058,7 +7031,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7046,13 @@
         <v>4364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7103,13 +7076,13 @@
         <v>5473</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,10 +7097,10 @@
         <v>498211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>125</v>
@@ -7139,10 +7112,10 @@
         <v>521975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -7154,10 +7127,10 @@
         <v>1020186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>275</v>
@@ -7216,7 +7189,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7234,7 +7207,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7249,7 +7222,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7264,7 +7237,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,7 +7258,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7300,7 +7273,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7315,7 +7288,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,28 +7303,28 @@
         <v>865</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7360,13 +7333,13 @@
         <v>865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,10 +7354,10 @@
         <v>317700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>34</v>
@@ -7399,7 +7372,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -7411,10 +7384,10 @@
         <v>654009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -7473,7 +7446,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7491,7 +7464,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7506,7 +7479,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7521,7 +7494,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7509,13 @@
         <v>1267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7557,7 +7530,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7566,13 +7539,13 @@
         <v>1267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7566,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7608,7 +7581,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7623,7 +7596,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,10 +7611,10 @@
         <v>368697</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>34</v>
@@ -7656,7 +7629,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -7668,10 +7641,10 @@
         <v>755980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -7748,7 +7721,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7763,7 +7736,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7793,13 +7766,13 @@
         <v>960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7814,7 +7787,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7829,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7817,13 @@
         <v>1896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7865,7 +7838,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7880,7 +7853,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7868,13 @@
         <v>208364</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -7913,7 +7886,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -7925,10 +7898,10 @@
         <v>426951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>125</v>
@@ -7987,7 +7960,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8005,7 +7978,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8020,7 +7993,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8035,7 +8008,7 @@
         <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8023,13 @@
         <v>1912</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8065,13 +8038,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8080,13 +8053,13 @@
         <v>2853</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8080,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8122,7 +8095,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8137,7 +8110,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,10 +8125,10 @@
         <v>261211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -8167,10 +8140,10 @@
         <v>272174</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -8182,13 +8155,13 @@
         <v>533385</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,7 +8235,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8277,7 +8250,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8307,13 +8280,13 @@
         <v>3235</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8328,7 +8301,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -8337,13 +8310,13 @@
         <v>3235</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8331,13 @@
         <v>14054</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -8373,13 +8346,13 @@
         <v>6109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8388,13 +8361,13 @@
         <v>20163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8382,13 @@
         <v>639269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="H37" s="7">
         <v>640</v>
@@ -8424,13 +8397,13 @@
         <v>685185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="M37" s="7">
         <v>1205</v>
@@ -8439,13 +8412,13 @@
         <v>1324453</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,7 +8492,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -8534,7 +8507,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -8549,7 +8522,7 @@
         <v>14</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8537,13 @@
         <v>921</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8585,7 +8558,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8594,13 +8567,13 @@
         <v>921</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8588,13 @@
         <v>4242</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -8630,13 +8603,13 @@
         <v>2197</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -8645,13 +8618,13 @@
         <v>6438</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8639,13 @@
         <v>773421</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="H42" s="7">
         <v>753</v>
@@ -8681,10 +8654,10 @@
         <v>823970</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -8699,10 +8672,10 @@
         <v>121</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8743,13 @@
         <v>2143</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -8785,13 +8758,13 @@
         <v>2026</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -8800,13 +8773,13 @@
         <v>4170</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,10 +8797,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -8836,13 +8809,13 @@
         <v>941</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -8851,13 +8824,13 @@
         <v>13802</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,13 +8845,13 @@
         <v>33776</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -8887,13 +8860,13 @@
         <v>13921</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -8905,10 +8878,10 @@
         <v>11</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8896,13 @@
         <v>3345570</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H47" s="7">
         <v>3322</v>
@@ -8938,13 +8911,13 @@
         <v>3527654</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M47" s="7">
         <v>6509</v>
@@ -8953,13 +8926,13 @@
         <v>6873224</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,7 +8988,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9039,7 +9012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69206D6-D78F-4B7C-8BC2-C1027B1FB326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53435DF1-6219-4AA0-9256-77741A087010}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9056,7 +9029,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9184,7 +9157,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9199,7 +9172,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9214,13 +9187,13 @@
         <v>1244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9235,7 +9208,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -9244,13 +9217,13 @@
         <v>1244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9265,13 +9238,13 @@
         <v>3701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9286,7 +9259,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -9298,10 +9271,10 @@
         <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9316,13 +9289,13 @@
         <v>149535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -9334,7 +9307,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>38</v>
@@ -9346,13 +9319,13 @@
         <v>234492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,7 +9399,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9441,7 +9414,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9456,7 +9429,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9477,7 +9450,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9492,7 +9465,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9507,7 +9480,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9528,7 +9501,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9543,7 +9516,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9558,7 +9531,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9576,7 +9549,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -9591,7 +9564,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -9606,7 +9579,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -9665,7 +9638,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -9677,10 +9650,10 @@
         <v>2906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>333</v>
@@ -9692,7 +9665,7 @@
         <v>1124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -9710,7 +9683,7 @@
         <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>336</v>
@@ -9728,10 +9701,10 @@
         <v>3506</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>337</v>
@@ -9758,10 +9731,10 @@
         <v>3506</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>339</v>
@@ -9779,10 +9752,10 @@
         <v>3010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>341</v>
@@ -9812,7 +9785,7 @@
         <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>343</v>
@@ -9836,7 +9809,7 @@
         <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -9845,13 +9818,13 @@
         <v>94004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -9922,7 +9895,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9934,7 +9907,7 @@
         <v>1688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
@@ -9949,7 +9922,7 @@
         <v>963</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
@@ -9964,13 +9937,13 @@
         <v>2651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9991,22 +9964,22 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10042,7 +10015,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10057,7 +10030,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -10066,13 +10039,13 @@
         <v>924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,7 +10060,7 @@
         <v>178965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>356</v>
@@ -10105,7 +10078,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -10117,13 +10090,13 @@
         <v>312166</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,7 +10170,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10206,13 +10179,13 @@
         <v>481</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -10221,13 +10194,13 @@
         <v>481</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,7 +10221,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10299,7 +10272,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10374,7 +10347,7 @@
         <v>43845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>369</v>
@@ -10436,7 +10409,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -10451,7 +10424,7 @@
         <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>371</v>
@@ -10466,7 +10439,7 @@
         <v>372</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>373</v>
@@ -10481,7 +10454,7 @@
         <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>375</v>
@@ -10499,13 +10472,13 @@
         <v>657</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10529,13 +10502,13 @@
         <v>657</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10550,13 +10523,13 @@
         <v>926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10580,13 +10553,13 @@
         <v>926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>104</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,7 +10580,7 @@
         <v>380</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>381</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
@@ -10616,13 +10589,13 @@
         <v>100936</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>384</v>
+        <v>62</v>
       </c>
       <c r="M32" s="7">
         <v>350</v>
@@ -10631,13 +10604,13 @@
         <v>265606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10705,13 +10678,13 @@
         <v>2811</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10720,13 +10693,13 @@
         <v>5270</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -10735,13 +10708,13 @@
         <v>8081</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>85</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10756,13 +10729,13 @@
         <v>3645</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -10771,13 +10744,13 @@
         <v>1566</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -10786,13 +10759,13 @@
         <v>5211</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10807,13 +10780,13 @@
         <v>3144</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10828,7 +10801,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10837,13 +10810,13 @@
         <v>3841</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10858,13 +10831,13 @@
         <v>299328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>397</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>398</v>
+        <v>177</v>
       </c>
       <c r="H37" s="7">
         <v>277</v>
@@ -10873,13 +10846,13 @@
         <v>312804</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="M37" s="7">
         <v>555</v>
@@ -10888,13 +10861,13 @@
         <v>612132</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10962,13 +10935,13 @@
         <v>1941</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>404</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10983,7 +10956,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -10992,13 +10965,13 @@
         <v>1941</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11019,7 +10992,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>406</v>
+        <v>252</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11028,13 +11001,13 @@
         <v>808</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -11043,13 +11016,13 @@
         <v>1991</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>408</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11064,13 +11037,13 @@
         <v>1083</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11079,13 +11052,13 @@
         <v>822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -11094,13 +11067,13 @@
         <v>1906</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>241</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11115,13 +11088,13 @@
         <v>321757</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>411</v>
+        <v>122</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
@@ -11130,10 +11103,10 @@
         <v>119829</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>54</v>
+        <v>402</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -11145,13 +11118,13 @@
         <v>441586</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11222,10 +11195,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="H44" s="7">
         <v>12</v>
@@ -11240,7 +11213,7 @@
         <v>239</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="M44" s="7">
         <v>28</v>
@@ -11249,13 +11222,13 @@
         <v>22754</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11270,13 +11243,13 @@
         <v>10234</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -11285,13 +11258,13 @@
         <v>2374</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="M45" s="7">
         <v>16</v>
@@ -11300,13 +11273,13 @@
         <v>12608</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11321,13 +11294,13 @@
         <v>12789</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>340</v>
+        <v>143</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -11339,10 +11312,10 @@
         <v>87</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -11351,13 +11324,13 @@
         <v>14978</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11372,13 +11345,13 @@
         <v>1575913</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>95</v>
+        <v>409</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="H47" s="7">
         <v>1174</v>
@@ -11387,13 +11360,13 @@
         <v>971305</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M47" s="7">
         <v>2712</v>
@@ -11402,13 +11375,13 @@
         <v>2547219</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11464,7 +11437,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B095198-38AD-4262-ACA2-52195805BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE42E6E-A0B3-42C4-A0D3-FFA249D4A410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5547EFCA-2A64-4434-BF20-B7ABB00AD2E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEEE9848-E4C4-4004-9331-ABA86C9C9229}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="419">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>Consumo perjudicial</t>
@@ -110,1171 +110,1183 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,18%</t>
@@ -1283,7 +1295,7 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,43%</t>
+    <t>97,39%</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B50A79-3A21-4EF8-A7A1-5E530A0E0168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E3C4EE-D26C-4340-8B17-C223F8A83C86}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2262,10 +2274,10 @@
         <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,7 +2333,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2339,7 +2351,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2354,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2369,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,7 +2402,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2405,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2420,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2456,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2471,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2501,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -2504,7 +2516,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -2519,7 +2531,7 @@
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>38</v>
@@ -2596,37 +2608,37 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2653,13 @@
         <v>2436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2662,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2671,13 +2683,13 @@
         <v>2436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2704,13 @@
         <v>3574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2713,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2722,13 +2734,13 @@
         <v>6204</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2755,13 @@
         <v>352662</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
         <v>382</v>
@@ -2758,10 +2770,10 @@
         <v>368826</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -2773,13 +2785,13 @@
         <v>721488</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,7 +2847,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2847,28 +2859,28 @@
         <v>895</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2877,13 +2889,13 @@
         <v>895</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,37 +2916,37 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2967,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2964,13 +2976,13 @@
         <v>1658</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2979,13 +2991,13 @@
         <v>1658</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,10 +3012,10 @@
         <v>202413</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>34</v>
@@ -3015,10 +3027,10 @@
         <v>206010</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -3030,10 +3042,10 @@
         <v>408423</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -3092,7 +3104,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3110,7 +3122,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3155,7 +3167,7 @@
         <v>2612</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
@@ -3212,7 +3224,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3272,7 +3284,7 @@
         <v>276167</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>109</v>
@@ -3469,7 +3481,7 @@
         <v>118</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3493,13 +3505,13 @@
         <v>2800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3529,10 @@
         <v>121</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H37" s="7">
         <v>621</v>
@@ -3532,7 +3544,7 @@
         <v>34</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>38</v>
@@ -3544,13 +3556,13 @@
         <v>1250446</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3618,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3624,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3633,13 +3645,13 @@
         <v>1018</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -3654,7 +3666,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3684,13 +3696,13 @@
         <v>1018</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3705,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3732,13 @@
         <v>1953</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3741,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3750,13 +3762,13 @@
         <v>1953</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +3783,10 @@
         <v>740183</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>134</v>
@@ -3807,7 +3819,7 @@
         <v>138</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3923,7 @@
         <v>142</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,10 +3941,10 @@
         <v>42</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3947,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="M45" s="7">
         <v>8</v>
@@ -3956,13 +3968,13 @@
         <v>8843</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3989,13 @@
         <v>13194</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -3995,10 +4007,10 @@
         <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -4007,13 +4019,13 @@
         <v>19459</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,16 +4037,16 @@
         <v>3189</v>
       </c>
       <c r="D47" s="7">
-        <v>3250904</v>
+        <v>3250905</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H47" s="7">
         <v>3289</v>
@@ -4043,28 +4055,28 @@
         <v>3369909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M47" s="7">
         <v>6478</v>
       </c>
       <c r="N47" s="7">
-        <v>6620814</v>
+        <v>6620813</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4088,7 @@
         <v>3214</v>
       </c>
       <c r="D48" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>38</v>
@@ -4106,7 +4118,7 @@
         <v>6511</v>
       </c>
       <c r="N48" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>38</v>
@@ -4120,7 +4132,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A7CC2A-2415-4ADD-8FCE-A16B1AE84F0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C7430-4BEB-4444-ABAC-5B50AE0DF3AC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4161,7 +4173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4266,39 +4278,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,39 +4323,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,39 +4368,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,39 +4413,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,39 +4458,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,7 +4528,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4531,7 +4543,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4558,13 @@
         <v>3241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4567,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4582,7 +4594,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,10 +4609,10 @@
         <v>8101</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>163</v>
@@ -4618,7 +4630,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4630,10 +4642,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4660,13 @@
         <v>494186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H12" s="7">
         <v>480</v>
@@ -4666,7 +4678,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -4678,13 +4690,13 @@
         <v>1017951</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,7 +4752,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4788,7 +4800,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4881,7 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -4890,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4920,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -4920,10 +4932,10 @@
         <v>340034</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -4935,10 +4947,10 @@
         <v>664080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -5012,10 +5024,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5039,13 +5051,13 @@
         <v>4627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5072,13 @@
         <v>8868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5090,13 +5102,13 @@
         <v>8868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5123,13 @@
         <v>10304</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5132,7 +5144,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5141,13 +5153,13 @@
         <v>11316</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5174,13 @@
         <v>644921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>626</v>
@@ -5177,10 +5189,10 @@
         <v>675184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -5192,13 +5204,13 @@
         <v>1320105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,7 +5266,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5266,13 +5278,13 @@
         <v>2172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5287,7 +5299,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5296,13 +5308,13 @@
         <v>2172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5335,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5338,7 +5350,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5353,7 +5365,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5380,13 @@
         <v>3945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5389,7 +5401,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5401,10 +5413,10 @@
         <v>27</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5431,13 @@
         <v>206502</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>212</v>
@@ -5437,7 +5449,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -5449,13 +5461,13 @@
         <v>426093</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5523,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5529,7 +5541,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5559,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5592,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5631,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5679,7 +5691,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -5694,7 +5706,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -5709,7 +5721,7 @@
         <v>112</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>34</v>
@@ -5801,7 +5813,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5831,13 +5843,13 @@
         <v>4955</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5852,7 +5864,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -5861,13 +5873,13 @@
         <v>5956</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5894,13 @@
         <v>6846</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5903,7 +5915,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -5912,13 +5924,13 @@
         <v>7975</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5945,13 @@
         <v>650988</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>634</v>
@@ -5948,10 +5960,10 @@
         <v>691723</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>34</v>
@@ -5963,13 +5975,13 @@
         <v>1342710</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6037,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6037,13 +6049,13 @@
         <v>1030</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6058,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6088,13 +6100,13 @@
         <v>4121</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6109,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -6118,13 +6130,13 @@
         <v>4121</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6151,13 @@
         <v>6565</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -6160,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -6169,13 +6181,13 @@
         <v>7561</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>173</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6202,13 @@
         <v>767383</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="H42" s="7">
         <v>756</v>
@@ -6208,7 +6220,7 @@
         <v>134</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -6220,13 +6232,13 @@
         <v>1590240</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6306,13 @@
         <v>8882</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>130</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6324,13 +6336,13 @@
         <v>8882</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6357,13 @@
         <v>21184</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -6366,7 +6378,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -6378,10 +6390,10 @@
         <v>114</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6408,13 @@
         <v>35760</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -6417,7 +6429,7 @@
         <v>141</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M46" s="7">
         <v>37</v>
@@ -6426,13 +6438,13 @@
         <v>39882</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6459,13 @@
         <v>3360953</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H47" s="7">
         <v>3293</v>
@@ -6462,13 +6474,13 @@
         <v>3553185</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="M47" s="7">
         <v>6441</v>
@@ -6477,13 +6489,13 @@
         <v>6914138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,7 +6551,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6563,7 +6575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7AC19C-0968-4EAA-BA42-D931927EABF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA486C5-E5B9-4CBA-939D-789E2A79E1DB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6580,7 +6592,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6687,13 +6699,13 @@
         <v>2143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6702,13 +6714,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6717,13 +6729,13 @@
         <v>4170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6750,13 @@
         <v>4565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6771,10 +6783,10 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6801,13 @@
         <v>8355</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6804,13 +6816,13 @@
         <v>4505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6819,13 +6831,13 @@
         <v>12860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6852,13 @@
         <v>278698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -6855,13 +6867,13 @@
         <v>282171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -6870,13 +6882,13 @@
         <v>560869</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6962,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6965,7 +6977,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6980,7 +6992,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,7 +7013,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7016,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7031,7 +7043,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7058,13 @@
         <v>4364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7067,7 +7079,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -7076,13 +7088,13 @@
         <v>5473</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7109,13 @@
         <v>498211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="7">
         <v>483</v>
@@ -7112,10 +7124,10 @@
         <v>521975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -7127,13 +7139,13 @@
         <v>1020186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,7 +7201,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7207,7 +7219,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7222,7 +7234,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7237,7 +7249,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,7 +7270,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7273,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7288,7 +7300,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7315,13 @@
         <v>865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7324,7 +7336,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7333,13 +7345,13 @@
         <v>865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,10 +7366,10 @@
         <v>317700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>34</v>
@@ -7372,7 +7384,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -7384,10 +7396,10 @@
         <v>654009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -7464,7 +7476,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7479,7 +7491,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7494,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7521,13 @@
         <v>1267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7530,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7545,7 +7557,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,7 +7578,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7581,7 +7593,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7596,7 +7608,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7626,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>34</v>
@@ -7629,7 +7641,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -7641,10 +7653,10 @@
         <v>755980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -7703,7 +7715,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7721,7 +7733,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7736,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7751,7 +7763,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7778,13 @@
         <v>960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7787,7 +7799,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7796,13 +7808,13 @@
         <v>960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7829,13 @@
         <v>1896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7838,7 +7850,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7847,13 +7859,13 @@
         <v>1896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7880,13 @@
         <v>208364</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -7886,7 +7898,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -7898,13 +7910,13 @@
         <v>426951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7972,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7978,7 +7990,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7993,7 +8005,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8008,7 +8020,7 @@
         <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8035,13 @@
         <v>1912</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8038,13 +8050,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8053,13 +8065,13 @@
         <v>2853</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8095,7 +8107,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8110,7 +8122,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,10 +8137,10 @@
         <v>261211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -8143,7 +8155,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -8155,13 +8167,13 @@
         <v>533385</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,7 +8247,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8250,7 +8262,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8280,13 +8292,13 @@
         <v>3235</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8301,7 +8313,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -8310,13 +8322,13 @@
         <v>3235</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>301</v>
+        <v>143</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8343,13 @@
         <v>14054</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -8346,13 +8358,13 @@
         <v>6109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8361,13 +8373,13 @@
         <v>20163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8394,13 @@
         <v>639269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H37" s="7">
         <v>640</v>
@@ -8397,13 +8409,13 @@
         <v>685185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="M37" s="7">
         <v>1205</v>
@@ -8412,13 +8424,13 @@
         <v>1324453</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,7 +8486,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8492,7 +8504,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -8507,7 +8519,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -8522,7 +8534,7 @@
         <v>14</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,7 +8555,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8558,7 +8570,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8573,7 +8585,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,13 +8600,13 @@
         <v>4242</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -8603,13 +8615,13 @@
         <v>2197</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -8618,13 +8630,13 @@
         <v>6438</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8639,13 +8651,13 @@
         <v>773421</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H42" s="7">
         <v>753</v>
@@ -8654,10 +8666,10 @@
         <v>823970</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -8672,7 +8684,7 @@
         <v>121</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>112</v>
@@ -8749,7 +8761,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -8764,7 +8776,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -8776,10 +8788,10 @@
         <v>140</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,10 +8809,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -8815,7 +8827,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -8824,13 +8836,13 @@
         <v>13802</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8845,13 +8857,13 @@
         <v>33776</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -8863,10 +8875,10 @@
         <v>49</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -8878,10 +8890,10 @@
         <v>11</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +8908,13 @@
         <v>3345570</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H47" s="7">
         <v>3322</v>
@@ -8911,13 +8923,13 @@
         <v>3527654</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="M47" s="7">
         <v>6509</v>
@@ -8926,13 +8938,13 @@
         <v>6873224</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8988,7 +9000,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -9012,7 +9024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53435DF1-6219-4AA0-9256-77741A087010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FBD131-AECE-424B-A8FC-67AD21B592D6}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9029,7 +9041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9142,7 +9154,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9157,7 +9169,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9172,7 +9184,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9187,13 +9199,13 @@
         <v>1244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9208,7 +9220,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -9217,13 +9229,13 @@
         <v>1244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,13 +9250,13 @@
         <v>3701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9259,7 +9271,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -9268,13 +9280,13 @@
         <v>3701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9289,13 +9301,13 @@
         <v>149535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -9307,7 +9319,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>38</v>
@@ -9319,13 +9331,13 @@
         <v>234492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,7 +9411,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9414,7 +9426,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9429,7 +9441,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9450,7 +9462,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9465,7 +9477,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9480,7 +9492,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,7 +9513,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9516,7 +9528,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9531,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9549,7 +9561,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -9579,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -9638,7 +9650,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -9650,13 +9662,13 @@
         <v>2906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -9665,13 +9677,13 @@
         <v>1124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -9680,13 +9692,13 @@
         <v>4030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9701,13 +9713,13 @@
         <v>3506</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9722,7 +9734,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -9731,13 +9743,13 @@
         <v>3506</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,13 +9764,13 @@
         <v>3010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9767,13 +9779,13 @@
         <v>670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -9782,13 +9794,13 @@
         <v>3681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,13 +9815,13 @@
         <v>179520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -9818,13 +9830,13 @@
         <v>94004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -9833,13 +9845,13 @@
         <v>273524</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,13 +9919,13 @@
         <v>1688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -9922,13 +9934,13 @@
         <v>963</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -9937,13 +9949,13 @@
         <v>2651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9964,37 +9976,37 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10009,13 +10021,13 @@
         <v>924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10030,7 +10042,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -10039,13 +10051,13 @@
         <v>924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10060,7 +10072,7 @@
         <v>178965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>356</v>
@@ -10078,7 +10090,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -10090,13 +10102,13 @@
         <v>312166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10152,7 +10164,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -10170,7 +10182,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10179,13 +10191,13 @@
         <v>481</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -10194,13 +10206,13 @@
         <v>481</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10221,7 +10233,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10236,7 +10248,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10251,7 +10263,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10272,7 +10284,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10287,7 +10299,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10302,7 +10314,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,7 +10332,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>38</v>
@@ -10332,10 +10344,10 @@
         <v>9315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -10347,10 +10359,10 @@
         <v>43845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -10409,7 +10421,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -10421,13 +10433,13 @@
         <v>3170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -10436,13 +10448,13 @@
         <v>2400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -10451,13 +10463,13 @@
         <v>5570</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10478,7 +10490,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10493,7 +10505,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -10502,13 +10514,13 @@
         <v>657</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10523,13 +10535,13 @@
         <v>926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10544,7 +10556,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -10553,13 +10565,13 @@
         <v>926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10574,13 +10586,13 @@
         <v>164672</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
@@ -10589,13 +10601,13 @@
         <v>100936</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>99</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>62</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>350</v>
@@ -10604,13 +10616,13 @@
         <v>265606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10681,10 +10693,10 @@
         <v>27</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10693,13 +10705,13 @@
         <v>5270</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -10708,13 +10720,13 @@
         <v>8081</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10729,13 +10741,13 @@
         <v>3645</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>119</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -10744,13 +10756,13 @@
         <v>1566</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -10759,13 +10771,13 @@
         <v>5211</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10780,13 +10792,13 @@
         <v>3144</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>390</v>
+        <v>274</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10795,13 +10807,13 @@
         <v>696</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10810,13 +10822,13 @@
         <v>3841</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10831,13 +10843,13 @@
         <v>299328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="H37" s="7">
         <v>277</v>
@@ -10846,13 +10858,13 @@
         <v>312804</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="M37" s="7">
         <v>555</v>
@@ -10861,13 +10873,13 @@
         <v>612132</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10923,7 +10935,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10941,7 +10953,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10956,7 +10968,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -10965,13 +10977,13 @@
         <v>1941</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>397</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10992,7 +11004,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>252</v>
+        <v>402</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11001,13 +11013,13 @@
         <v>808</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -11016,13 +11028,13 @@
         <v>1991</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>172</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11037,13 +11049,13 @@
         <v>1083</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11052,13 +11064,13 @@
         <v>822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -11067,13 +11079,13 @@
         <v>1906</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11088,13 +11100,13 @@
         <v>321757</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
@@ -11103,10 +11115,10 @@
         <v>119829</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -11118,13 +11130,13 @@
         <v>441586</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>403</v>
+        <v>233</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>404</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11195,10 +11207,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="H44" s="7">
         <v>12</v>
@@ -11207,13 +11219,13 @@
         <v>10238</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>405</v>
+        <v>245</v>
       </c>
       <c r="M44" s="7">
         <v>28</v>
@@ -11222,13 +11234,13 @@
         <v>22754</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>406</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11243,13 +11255,13 @@
         <v>10234</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -11258,13 +11270,13 @@
         <v>2374</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M45" s="7">
         <v>16</v>
@@ -11273,13 +11285,13 @@
         <v>12608</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11297,10 +11309,10 @@
         <v>47</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -11309,13 +11321,13 @@
         <v>2189</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
@@ -11324,13 +11336,13 @@
         <v>14978</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>408</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11345,13 +11357,13 @@
         <v>1575913</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="H47" s="7">
         <v>1174</v>
@@ -11360,13 +11372,13 @@
         <v>971305</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M47" s="7">
         <v>2712</v>
@@ -11375,13 +11387,13 @@
         <v>2547219</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11437,7 +11449,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE42E6E-A0B3-42C4-A0D3-FFA249D4A410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A423479-6172-4D36-9DC2-866EAEAB7F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEEE9848-E4C4-4004-9331-ABA86C9C9229}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B812A71A-B908-4907-B133-EEC62BD3AFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="426">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -509,7 +509,82 @@
     <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -575,727 +650,673 @@
     <t>99,85%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E3C4EE-D26C-4340-8B17-C223F8A83C86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB790D96-83AB-4846-A469-2B6876032B02}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4037,7 +4058,7 @@
         <v>3189</v>
       </c>
       <c r="D47" s="7">
-        <v>3250905</v>
+        <v>3250904</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>147</v>
@@ -4052,7 +4073,7 @@
         <v>3289</v>
       </c>
       <c r="I47" s="7">
-        <v>3369909</v>
+        <v>3369908</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>150</v>
@@ -4067,7 +4088,7 @@
         <v>6478</v>
       </c>
       <c r="N47" s="7">
-        <v>6620813</v>
+        <v>6620814</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>152</v>
@@ -4088,7 +4109,7 @@
         <v>3214</v>
       </c>
       <c r="D48" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>38</v>
@@ -4103,7 +4124,7 @@
         <v>3297</v>
       </c>
       <c r="I48" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>38</v>
@@ -4118,7 +4139,7 @@
         <v>6511</v>
       </c>
       <c r="N48" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>38</v>
@@ -4156,7 +4177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C7430-4BEB-4444-ABAC-5B50AE0DF3AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2C5DE1-902D-422F-B698-7FC9E122B7D5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,43 +4295,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4627</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4627</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,43 +4346,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8868</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8868</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,43 +4397,49 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9380</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1012</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10392</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,43 +4448,49 @@
         <v>28</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="D7" s="7">
+        <v>271863</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I7" s="7">
+        <v>286233</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="N7" s="7">
+        <v>558096</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,43 +4499,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D8" s="7">
+        <v>294738</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I8" s="7">
+        <v>287245</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N8" s="7">
+        <v>581983</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4594,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4609,13 @@
         <v>3241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4594,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4660,13 @@
         <v>8101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4645,7 +4696,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,10 +4714,10 @@
         <v>95</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>480</v>
@@ -4678,7 +4729,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -4690,13 +4741,13 @@
         <v>1017951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4821,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4785,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4821,7 +4872,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4836,7 +4887,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4872,7 +4923,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4887,7 +4938,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4896,13 +4947,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4971,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -4932,10 +4983,10 @@
         <v>340034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -4947,10 +4998,10 @@
         <v>664080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -5015,19 +5066,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5042,22 +5093,22 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,19 +5117,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>8868</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5093,22 +5144,22 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>8868</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,49 +5168,49 @@
         <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>10304</v>
+        <v>924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
-        <v>1012</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M21" s="7">
-        <v>11</v>
-      </c>
       <c r="N21" s="7">
-        <v>11316</v>
+        <v>924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,49 +5219,49 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>602</v>
+        <v>343</v>
       </c>
       <c r="D22" s="7">
-        <v>644921</v>
+        <v>373058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="H22" s="7">
-        <v>626</v>
+        <v>371</v>
       </c>
       <c r="I22" s="7">
-        <v>675184</v>
+        <v>388951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="7">
+        <v>714</v>
+      </c>
+      <c r="N22" s="7">
+        <v>762009</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1228</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1320105</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,10 +5270,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D23" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -5234,10 +5285,10 @@
         <v>38</v>
       </c>
       <c r="H23" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I23" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -5249,10 +5300,10 @@
         <v>38</v>
       </c>
       <c r="M23" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N23" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -5278,13 +5329,13 @@
         <v>2172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5299,7 +5350,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5314,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5386,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5350,7 +5401,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5380,13 +5431,13 @@
         <v>3945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5401,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5416,7 +5467,7 @@
         <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,10 +5482,10 @@
         <v>206502</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>148</v>
@@ -5449,7 +5500,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -5461,10 +5512,10 @@
         <v>426093</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>54</v>
@@ -5541,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5592,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5643,7 +5694,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5691,7 +5742,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -5828,7 +5879,7 @@
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5894,13 @@
         <v>4955</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5864,7 +5915,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -5876,10 +5927,10 @@
         <v>83</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5945,13 @@
         <v>6846</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5924,13 +5975,13 @@
         <v>7975</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,10 +5999,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>634</v>
@@ -5963,7 +6014,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>34</v>
@@ -5975,13 +6026,13 @@
         <v>1342710</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6106,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6070,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6121,7 +6172,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -6157,7 +6208,7 @@
         <v>66</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -6172,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -6184,7 +6235,7 @@
         <v>89</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>119</v>
@@ -6202,10 +6253,10 @@
         <v>767383</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>147</v>
@@ -6235,7 +6286,7 @@
         <v>138</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>137</v>
@@ -6390,7 +6441,7 @@
         <v>114</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>127</v>
@@ -6408,13 +6459,13 @@
         <v>35760</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -6444,7 +6495,7 @@
         <v>40</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6510,13 @@
         <v>3360953</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="H47" s="7">
         <v>3293</v>
@@ -6480,7 +6531,7 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M47" s="7">
         <v>6441</v>
@@ -6489,10 +6540,10 @@
         <v>6914138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>138</v>
@@ -6575,7 +6626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA486C5-E5B9-4CBA-939D-789E2A79E1DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE54D6-A936-4CC0-BB55-48218A6552BC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6592,7 +6643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6699,13 +6750,13 @@
         <v>2143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6714,13 +6765,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6735,7 +6786,7 @@
         <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6801,13 @@
         <v>4565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6786,7 +6837,7 @@
         <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6852,13 @@
         <v>8355</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6816,13 +6867,13 @@
         <v>4505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6831,13 +6882,13 @@
         <v>12860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6903,13 @@
         <v>278698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -6867,13 +6918,13 @@
         <v>282171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -6882,10 +6933,10 @@
         <v>560869</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>80</v>
@@ -6992,7 +7043,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,7 +7094,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7109,13 @@
         <v>4364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7079,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -7109,10 +7160,10 @@
         <v>498211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>124</v>
@@ -7124,7 +7175,7 @@
         <v>521975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>133</v>
@@ -7139,13 +7190,13 @@
         <v>1020186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7285,7 +7336,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7315,13 +7366,13 @@
         <v>865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7336,7 +7387,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7351,7 +7402,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,7 +7420,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>34</v>
@@ -7384,7 +7435,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>38</v>
@@ -7396,10 +7447,10 @@
         <v>654009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -7476,7 +7527,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7506,7 +7557,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7572,13 @@
         <v>1267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7578,7 +7629,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7608,7 +7659,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,7 +7677,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>34</v>
@@ -7641,7 +7692,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -7653,7 +7704,7 @@
         <v>755980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>110</v>
@@ -7733,7 +7784,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7748,7 +7799,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7778,13 +7829,13 @@
         <v>960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7799,7 +7850,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7814,7 +7865,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7880,13 @@
         <v>1896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7850,7 +7901,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7865,7 +7916,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,7 +7934,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>94</v>
@@ -7898,7 +7949,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -7910,10 +7961,10 @@
         <v>426951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>124</v>
@@ -7990,7 +8041,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8005,7 +8056,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8020,7 +8071,7 @@
         <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8086,13 @@
         <v>1912</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8050,13 +8101,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8071,7 +8122,7 @@
         <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,7 +8143,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8107,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8122,7 +8173,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,10 +8188,10 @@
         <v>261211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>34</v>
@@ -8155,7 +8206,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -8167,13 +8218,13 @@
         <v>533385</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,7 +8343,7 @@
         <v>3235</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>116</v>
@@ -8328,7 +8379,7 @@
         <v>143</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,10 +8397,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -8358,13 +8409,13 @@
         <v>6109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8373,13 +8424,13 @@
         <v>20163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8445,13 @@
         <v>639269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H37" s="7">
         <v>640</v>
@@ -8409,7 +8460,7 @@
         <v>685185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
@@ -8424,13 +8475,13 @@
         <v>1324453</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,7 +8570,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -8555,7 +8606,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8570,7 +8621,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8600,13 +8651,13 @@
         <v>4242</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -8615,7 +8666,7 @@
         <v>2197</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
@@ -8636,7 +8687,7 @@
         <v>118</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,13 +8702,13 @@
         <v>773421</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="H42" s="7">
         <v>753</v>
@@ -8669,7 +8720,7 @@
         <v>150</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -8684,7 +8735,7 @@
         <v>121</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>112</v>
@@ -8788,7 +8839,7 @@
         <v>140</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>118</v>
@@ -8809,7 +8860,7 @@
         <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>129</v>
@@ -8827,7 +8878,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -8836,13 +8887,13 @@
         <v>13802</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,7 +8914,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -8878,7 +8929,7 @@
         <v>42</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -8890,7 +8941,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>27</v>
@@ -8908,13 +8959,13 @@
         <v>3345570</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>3322</v>
@@ -8923,7 +8974,7 @@
         <v>3527654</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>153</v>
@@ -8938,7 +8989,7 @@
         <v>6873224</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>133</v>
@@ -9024,7 +9075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FBD131-AECE-424B-A8FC-67AD21B592D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62026517-9152-46BB-8D0D-BAA8CBD2B660}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9041,7 +9092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9154,7 +9205,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9169,7 +9220,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9184,7 +9235,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9196,16 +9247,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1244</v>
+        <v>1558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9220,22 +9271,22 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1244</v>
+        <v>1558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9247,16 +9298,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>3701</v>
+        <v>4767</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9271,22 +9322,22 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>3701</v>
+        <v>4767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9298,28 +9349,28 @@
         <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>149535</v>
+        <v>173564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
       </c>
       <c r="I7" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>38</v>
@@ -9328,16 +9379,16 @@
         <v>343</v>
       </c>
       <c r="N7" s="7">
-        <v>234492</v>
+        <v>264247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9349,7 +9400,7 @@
         <v>184</v>
       </c>
       <c r="D8" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -9364,7 +9415,7 @@
         <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>38</v>
@@ -9379,7 +9430,7 @@
         <v>347</v>
       </c>
       <c r="N8" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -9411,7 +9462,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9426,7 +9477,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9441,7 +9492,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9462,7 +9513,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9477,7 +9528,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9492,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9513,7 +9564,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9528,7 +9579,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9543,7 +9594,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9555,13 +9606,13 @@
         <v>175</v>
       </c>
       <c r="D12" s="7">
-        <v>247606</v>
+        <v>250350</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -9570,7 +9621,7 @@
         <v>137</v>
       </c>
       <c r="I12" s="7">
-        <v>116259</v>
+        <v>108684</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>34</v>
@@ -9585,7 +9636,7 @@
         <v>312</v>
       </c>
       <c r="N12" s="7">
-        <v>363866</v>
+        <v>359033</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>34</v>
@@ -9606,7 +9657,7 @@
         <v>175</v>
       </c>
       <c r="D13" s="7">
-        <v>247606</v>
+        <v>250350</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -9621,7 +9672,7 @@
         <v>137</v>
       </c>
       <c r="I13" s="7">
-        <v>116259</v>
+        <v>108684</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>38</v>
@@ -9636,7 +9687,7 @@
         <v>312</v>
       </c>
       <c r="N13" s="7">
-        <v>363866</v>
+        <v>359033</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>38</v>
@@ -9659,46 +9710,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>2906</v>
+        <v>2778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1124</v>
+        <v>1051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>4030</v>
+        <v>3829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9710,16 +9761,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>3506</v>
+        <v>3346</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9734,22 +9785,22 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>3506</v>
+        <v>3346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9761,46 +9812,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3010</v>
+        <v>3001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3681</v>
+        <v>3634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9812,46 +9863,46 @@
         <v>199</v>
       </c>
       <c r="D17" s="7">
-        <v>179520</v>
+        <v>176061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
       </c>
       <c r="I17" s="7">
-        <v>94004</v>
+        <v>88589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
       </c>
       <c r="N17" s="7">
-        <v>273524</v>
+        <v>264650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9863,7 +9914,7 @@
         <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>38</v>
@@ -9878,7 +9929,7 @@
         <v>125</v>
       </c>
       <c r="I18" s="7">
-        <v>95798</v>
+        <v>90272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>38</v>
@@ -9893,7 +9944,7 @@
         <v>337</v>
       </c>
       <c r="N18" s="7">
-        <v>284740</v>
+        <v>275458</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>38</v>
@@ -9916,46 +9967,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1688</v>
+        <v>1613</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>963</v>
+        <v>902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>2651</v>
+        <v>2515</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,7 +10027,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9991,7 +10042,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10006,7 +10057,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10018,16 +10069,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10042,13 +10093,13 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>146</v>
@@ -10057,7 +10108,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10069,28 +10120,28 @@
         <v>157</v>
       </c>
       <c r="D22" s="7">
-        <v>178965</v>
+        <v>174979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
       </c>
       <c r="I22" s="7">
-        <v>133201</v>
+        <v>123443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>53</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>34</v>
@@ -10099,16 +10150,16 @@
         <v>335</v>
       </c>
       <c r="N22" s="7">
-        <v>312166</v>
+        <v>298422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10120,7 +10171,7 @@
         <v>160</v>
       </c>
       <c r="D23" s="7">
-        <v>181577</v>
+        <v>177477</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -10135,7 +10186,7 @@
         <v>180</v>
       </c>
       <c r="I23" s="7">
-        <v>134164</v>
+        <v>124345</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -10150,7 +10201,7 @@
         <v>340</v>
       </c>
       <c r="N23" s="7">
-        <v>315741</v>
+        <v>301822</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -10182,37 +10233,37 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,7 +10284,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10248,7 +10299,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10263,7 +10314,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,7 +10335,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10299,7 +10350,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10314,7 +10365,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10326,13 +10377,13 @@
         <v>46</v>
       </c>
       <c r="D27" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>38</v>
@@ -10341,13 +10392,13 @@
         <v>18</v>
       </c>
       <c r="I27" s="7">
-        <v>9315</v>
+        <v>8143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -10356,13 +10407,13 @@
         <v>64</v>
       </c>
       <c r="N27" s="7">
-        <v>43845</v>
+        <v>39289</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -10377,7 +10428,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>38</v>
@@ -10392,7 +10443,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>38</v>
@@ -10407,7 +10458,7 @@
         <v>65</v>
       </c>
       <c r="N28" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>38</v>
@@ -10430,46 +10481,46 @@
         <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>3170</v>
+        <v>3029</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>2400</v>
+        <v>2216</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>354</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>5570</v>
+        <v>5245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10481,16 +10532,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10505,13 +10556,13 @@
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>144</v>
@@ -10520,7 +10571,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10532,16 +10583,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>926</v>
+        <v>882</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10556,22 +10607,22 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>926</v>
+        <v>882</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10583,46 +10634,46 @@
         <v>205</v>
       </c>
       <c r="D32" s="7">
-        <v>164672</v>
+        <v>160512</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
       </c>
       <c r="I32" s="7">
-        <v>100936</v>
+        <v>94204</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>350</v>
       </c>
       <c r="N32" s="7">
-        <v>265606</v>
+        <v>254716</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10634,7 +10685,7 @@
         <v>211</v>
       </c>
       <c r="D33" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>38</v>
@@ -10649,7 +10700,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>38</v>
@@ -10664,7 +10715,7 @@
         <v>359</v>
       </c>
       <c r="N33" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>38</v>
@@ -10687,46 +10738,46 @@
         <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>2811</v>
+        <v>2704</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>5270</v>
+        <v>4643</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>195</v>
+        <v>345</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
       </c>
       <c r="N34" s="7">
-        <v>8081</v>
+        <v>7347</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>390</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10738,46 +10789,46 @@
         <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>3645</v>
+        <v>3474</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>1566</v>
+        <v>1454</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>5211</v>
+        <v>4928</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>377</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10789,46 +10840,46 @@
         <v>5</v>
       </c>
       <c r="D36" s="7">
-        <v>3144</v>
+        <v>3039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>696</v>
+        <v>629</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
       </c>
       <c r="N36" s="7">
-        <v>3841</v>
+        <v>3667</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>327</v>
+        <v>127</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>184</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10840,46 +10891,46 @@
         <v>278</v>
       </c>
       <c r="D37" s="7">
-        <v>299328</v>
+        <v>298714</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7">
         <v>277</v>
       </c>
       <c r="I37" s="7">
-        <v>312804</v>
+        <v>392747</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>397</v>
+        <v>75</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="M37" s="7">
         <v>555</v>
       </c>
       <c r="N37" s="7">
-        <v>612132</v>
+        <v>691461</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>400</v>
+        <v>179</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10891,7 +10942,7 @@
         <v>291</v>
       </c>
       <c r="D38" s="7">
-        <v>308929</v>
+        <v>307930</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>38</v>
@@ -10906,7 +10957,7 @@
         <v>285</v>
       </c>
       <c r="I38" s="7">
-        <v>320336</v>
+        <v>399473</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>38</v>
@@ -10921,7 +10972,7 @@
         <v>576</v>
       </c>
       <c r="N38" s="7">
-        <v>629265</v>
+        <v>707403</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>38</v>
@@ -10944,16 +10995,16 @@
         <v>2</v>
       </c>
       <c r="D39" s="7">
-        <v>1941</v>
+        <v>1669</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10968,22 +11019,22 @@
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
       </c>
       <c r="N39" s="7">
-        <v>1941</v>
+        <v>1669</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10995,46 +11046,46 @@
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>1183</v>
+        <v>1025</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>808</v>
+        <v>699</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>403</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>1991</v>
+        <v>1724</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>404</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11046,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>1083</v>
+        <v>910</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>68</v>
@@ -11055,37 +11106,37 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>822</v>
+        <v>693</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1906</v>
+        <v>1603</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11097,28 +11148,28 @@
         <v>298</v>
       </c>
       <c r="D42" s="7">
-        <v>321757</v>
+        <v>272907</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
       </c>
       <c r="I42" s="7">
-        <v>119829</v>
+        <v>97709</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>34</v>
@@ -11127,16 +11178,16 @@
         <v>432</v>
       </c>
       <c r="N42" s="7">
-        <v>441586</v>
+        <v>370615</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>233</v>
+        <v>414</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>30</v>
+        <v>415</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>94</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11148,7 +11199,7 @@
         <v>302</v>
       </c>
       <c r="D43" s="7">
-        <v>325964</v>
+        <v>276512</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>38</v>
@@ -11163,7 +11214,7 @@
         <v>136</v>
       </c>
       <c r="I43" s="7">
-        <v>121460</v>
+        <v>99101</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>38</v>
@@ -11178,7 +11229,7 @@
         <v>438</v>
       </c>
       <c r="N43" s="7">
-        <v>447424</v>
+        <v>375612</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>38</v>
@@ -11201,46 +11252,46 @@
         <v>16</v>
       </c>
       <c r="D44" s="7">
-        <v>12515</v>
+        <v>11792</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="H44" s="7">
         <v>12</v>
       </c>
       <c r="I44" s="7">
-        <v>10238</v>
+        <v>9252</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>245</v>
+        <v>417</v>
       </c>
       <c r="M44" s="7">
         <v>28</v>
       </c>
       <c r="N44" s="7">
-        <v>22754</v>
+        <v>21044</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11252,46 +11303,46 @@
         <v>12</v>
       </c>
       <c r="D45" s="7">
-        <v>10234</v>
+        <v>10030</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
       </c>
       <c r="I45" s="7">
-        <v>2374</v>
+        <v>2153</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="M45" s="7">
         <v>16</v>
       </c>
       <c r="N45" s="7">
-        <v>12608</v>
+        <v>12183</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11303,46 +11354,46 @@
         <v>15</v>
       </c>
       <c r="D46" s="7">
-        <v>12789</v>
+        <v>13484</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>2189</v>
+        <v>1954</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
       </c>
       <c r="N46" s="7">
-        <v>14978</v>
+        <v>15437</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>88</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11354,46 +11405,46 @@
         <v>1538</v>
       </c>
       <c r="D47" s="7">
-        <v>1575913</v>
+        <v>1538231</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="H47" s="7">
         <v>1174</v>
       </c>
       <c r="I47" s="7">
-        <v>971305</v>
+        <v>1004202</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>224</v>
+        <v>422</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="M47" s="7">
         <v>2712</v>
       </c>
       <c r="N47" s="7">
-        <v>2547219</v>
+        <v>2542434</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11405,7 +11456,7 @@
         <v>1581</v>
       </c>
       <c r="D48" s="7">
-        <v>1611452</v>
+        <v>1573537</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>38</v>
@@ -11420,7 +11471,7 @@
         <v>1193</v>
       </c>
       <c r="I48" s="7">
-        <v>986107</v>
+        <v>1017561</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>38</v>
@@ -11435,7 +11486,7 @@
         <v>2774</v>
       </c>
       <c r="N48" s="7">
-        <v>2597559</v>
+        <v>2591098</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>38</v>
